--- a/biology/Botanique/Krameria_erecta/Krameria_erecta.xlsx
+++ b/biology/Botanique/Krameria_erecta/Krameria_erecta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Krameria erecta est un buisson de la famille des Krameriaceae originaire du sud-ouest des États-Unis et du nord du Mexique. Il est parfois inclus dans la famille des Zygophyllaceae.
 </t>
@@ -513,12 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-Ce buisson bas, aux nombreux rameaux intriqués, à la couleur grisâtre, mesure généralement entre 15 et 60 cm mais peut atteindre 1 voire 2 m de hauteur. Le jeunes tiges sont vertes, couvertes de poils raides, alors que les tiges plus âgées présentent une écorce grise, striée. Les feuilles très étroites, presque linéaires, de 0,6 à 1,3 cm de long pour 0,5 à 2 mm de large, sont alternées, couleur vert-gris et velues[1],[2].
-Appareil reproducteur
-La floraison a lieu principalement en mars/avril[3], mais peut s'étendre de mars à octobre[1].
-Les fleurs, rouge-violacé, sont disposées selon une symétrie bilatérale, portées à l'aisselle des feuilles par un pédicelle de 5 à 12 (voire 20) mm de long, couvert de poils glanduleux. Chaque fleur mesure 2 cm de diamètre en moyenne. L'involucre est formé de bractées linéaires de 5 à 7 (voire 12) mm de long. Le calice est composé de 5 sépales dont l'intérieur est rose ou rouge-violacé et l'extérieur, vert, est densément recouvert de poils ; chaque sépale mesure environ 8 mm de long pour 4 à 6 mm de large. La corolle est constituée de 5 pétales beaucoup plus petits que les sépales : trois sont groupés dans la partie supérieure de la fleur et joints à la base, ils sont grossièrement triangulaires, roses ou rouge-violacé à l'extrémité et vert à la base et mesurent entre 4 et 6 mm de long ; les deux autres, dans la partie inférieure, sont réduits à deux coussinets rose-pourpre glanduleux, proches de l'ovaire, appelés élaiophores, qui produisent une substance lipidique collectée par des abeilles du genre Centris. Il y a quatre étamines de 4 mm de longueur, blanc rosé. L'ovaire mesure 3 mm de long et son style est rose[1],[2].
-Les fruits sont des gousses en forme de cœur, de 6 mm de large, très velues et couvertes d'épines rougeâtres. Les graines sont lisses, sans endosperme[1],[2].
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce buisson bas, aux nombreux rameaux intriqués, à la couleur grisâtre, mesure généralement entre 15 et 60 cm mais peut atteindre 1 voire 2 m de hauteur. Le jeunes tiges sont vertes, couvertes de poils raides, alors que les tiges plus âgées présentent une écorce grise, striée. Les feuilles très étroites, presque linéaires, de 0,6 à 1,3 cm de long pour 0,5 à 2 mm de large, sont alternées, couleur vert-gris et velues,.
 </t>
         </is>
       </c>
@@ -544,14 +557,20 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Répartition et habitat</t>
+          <t>Description morphologique</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">On trouve cette plante dans les plaines sèches et les pentes et replats désertiques du continent nord américain, à une altitude inférieure à 1200 m[1],[4].
-Son aire de répartition s'étend au nord du sud-est de la Californie jusqu'à l'ouest du Texas, et descend au sud jusqu'au nord du Mexique[1].
-Elle est souvent en association avec les végétaux de la communauté "Larrea tridentata"[1] ou au sein de la communauté végétale appelée par les Américains "en:oak savanna"[2]. Elle demande très peu d'eau mais nécessite beaucoup de lumière. Elle tolère les sols calcaires[3] et préfère les sols basiques[5]. Elle n'est guère tolérante à l'ombre ou à un excès de salinité[5].
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La floraison a lieu principalement en mars/avril, mais peut s'étendre de mars à octobre.
+Les fleurs, rouge-violacé, sont disposées selon une symétrie bilatérale, portées à l'aisselle des feuilles par un pédicelle de 5 à 12 (voire 20) mm de long, couvert de poils glanduleux. Chaque fleur mesure 2 cm de diamètre en moyenne. L'involucre est formé de bractées linéaires de 5 à 7 (voire 12) mm de long. Le calice est composé de 5 sépales dont l'intérieur est rose ou rouge-violacé et l'extérieur, vert, est densément recouvert de poils ; chaque sépale mesure environ 8 mm de long pour 4 à 6 mm de large. La corolle est constituée de 5 pétales beaucoup plus petits que les sépales : trois sont groupés dans la partie supérieure de la fleur et joints à la base, ils sont grossièrement triangulaires, roses ou rouge-violacé à l'extrémité et vert à la base et mesurent entre 4 et 6 mm de long ; les deux autres, dans la partie inférieure, sont réduits à deux coussinets rose-pourpre glanduleux, proches de l'ovaire, appelés élaiophores, qui produisent une substance lipidique collectée par des abeilles du genre Centris. Il y a quatre étamines de 4 mm de longueur, blanc rosé. L'ovaire mesure 3 mm de long et son style est rose,.
+Les fruits sont des gousses en forme de cœur, de 6 mm de large, très velues et couvertes d'épines rougeâtres. Les graines sont lisses, sans endosperme,.
 </t>
         </is>
       </c>
@@ -577,12 +596,49 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Répartition et habitat</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On trouve cette plante dans les plaines sèches et les pentes et replats désertiques du continent nord américain, à une altitude inférieure à 1200 m,.
+Son aire de répartition s'étend au nord du sud-est de la Californie jusqu'à l'ouest du Texas, et descend au sud jusqu'au nord du Mexique.
+Elle est souvent en association avec les végétaux de la communauté "Larrea tridentata" ou au sein de la communauté végétale appelée par les Américains "en:oak savanna". Elle demande très peu d'eau mais nécessite beaucoup de lumière. Elle tolère les sols calcaires et préfère les sols basiques. Elle n'est guère tolérante à l'ombre ou à un excès de salinité.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Krameria_erecta</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Krameria_erecta</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été nommée par le botaniste et pharmacien allemand Carl Ludwig Willdenow, mais sa description a été parachevée en 1827 par le médecin et naturaliste autrichien Josef August Schultes et par son fils aîné Julius Hermann Schultes dans "Mantissa". Elle a reçu d'autres appellations, considérées comme synonymes: Krameria glandulosa Rose &amp; Painter, Krameria imparata (J.F. Macbr.) Britt., Krameria interior Rose &amp; Painter, Krameria navae Rzed., Krameria palmeri Rose, Krameria parviflora Benth., Krameria parvifolia Benth., ou encore Krameria rosmarinifolia Pavon ex Chodat[6].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été nommée par le botaniste et pharmacien allemand Carl Ludwig Willdenow, mais sa description a été parachevée en 1827 par le médecin et naturaliste autrichien Josef August Schultes et par son fils aîné Julius Hermann Schultes dans "Mantissa". Elle a reçu d'autres appellations, considérées comme synonymes: Krameria glandulosa Rose &amp; Painter, Krameria imparata (J.F. Macbr.) Britt., Krameria interior Rose &amp; Painter, Krameria navae Rzed., Krameria palmeri Rose, Krameria parviflora Benth., Krameria parvifolia Benth., ou encore Krameria rosmarinifolia Pavon ex Chodat.
 </t>
         </is>
       </c>
